--- a/test/e2e/resources/uiMap.xlsx
+++ b/test/e2e/resources/uiMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerthebunker/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerthebunker/git/Protractor-Gradle/test/e2e/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5633F33B-29E0-AA4B-93BD-FB8C8E03FE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA6D70-FC8B-7342-8BD2-3FF081E95410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{8C004345-C438-EE4E-882F-1BD7CD6B2581}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{8C004345-C438-EE4E-882F-1BD7CD6B2581}"/>
   </bookViews>
   <sheets>
     <sheet name="locators" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>pageNane</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
   <si>
     <t>elementName</t>
   </si>
   <si>
     <t>locator</t>
+  </si>
+  <si>
+    <t>locatorTypes</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Substract</t>
+  </si>
+  <si>
+    <t>Multiply</t>
+  </si>
+  <si>
+    <t>Divide</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>gobutton</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>binding</t>
+  </si>
+  <si>
+    <t>pageName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48,16 +96,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +133,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,28 +470,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5965FA-A34B-A24A-AEEB-50D9B76F66E5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test/e2e/resources/uiMap.xlsx
+++ b/test/e2e/resources/uiMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerthebunker/git/Protractor-Gradle/test/e2e/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA6D70-FC8B-7342-8BD2-3FF081E95410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2188D24C-D76C-8F4E-869A-DBD2D51BF276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{8C004345-C438-EE4E-882F-1BD7CD6B2581}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{8C004345-C438-EE4E-882F-1BD7CD6B2581}"/>
   </bookViews>
   <sheets>
     <sheet name="locators" sheetId="1" r:id="rId1"/>
@@ -474,14 +474,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/test/e2e/resources/uiMap.xlsx
+++ b/test/e2e/resources/uiMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerthebunker/git/Protractor-Gradle/test/e2e/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2188D24C-D76C-8F4E-869A-DBD2D51BF276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA743C-8147-C746-9D43-C879C15DC12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{8C004345-C438-EE4E-882F-1BD7CD6B2581}"/>
   </bookViews>
@@ -473,8 +473,8 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
